--- a/WBS-Gantt Chart.xlsx
+++ b/WBS-Gantt Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarina\Documents\GitHub\3GPower\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -878,13 +878,6 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -893,6 +886,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,9 +1166,9 @@
   </sheetPr>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ31" sqref="AQ31"/>
+      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1216,341 +1216,341 @@
       <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89">
+      <c r="D3" s="83"/>
+      <c r="E3" s="84">
         <f ca="1">TODAY()-24</f>
-        <v>44363</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>44372</v>
+      </c>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="86">
         <f ca="1">I5</f>
-        <v>44361</v>
-      </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+        <v>44368</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f ca="1">P5</f>
-        <v>44368</v>
-      </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+        <v>44375</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f ca="1">W5</f>
-        <v>44375</v>
-      </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+        <v>44382</v>
+      </c>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f ca="1">AD5</f>
-        <v>44382</v>
-      </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+        <v>44389</v>
+      </c>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f ca="1">AK5</f>
-        <v>44389</v>
-      </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+        <v>44396</v>
+      </c>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f ca="1">AR5</f>
-        <v>44396</v>
-      </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+        <v>44403</v>
+      </c>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f ca="1">AY5</f>
-        <v>44403</v>
-      </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="84">
+        <v>44410</v>
+      </c>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f ca="1">BF5</f>
-        <v>44410</v>
-      </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
+        <v>44417</v>
+      </c>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="14">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" ref="J5:BL5" ca="1" si="0">I5+1</f>
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="O5" s="16">
         <f ca="1">N5+1</f>
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44376</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44380</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44381</v>
       </c>
       <c r="W5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="X5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="Y5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="Z5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="AA5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="AB5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44387</v>
       </c>
       <c r="AC5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44388</v>
       </c>
       <c r="AD5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="AE5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="AF5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44391</v>
       </c>
       <c r="AG5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44392</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44386</v>
+        <v>44393</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="AJ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="AK5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="AL5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44397</v>
       </c>
       <c r="AM5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="AN5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44399</v>
       </c>
       <c r="AO5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="AP5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44401</v>
       </c>
       <c r="AQ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44402</v>
       </c>
       <c r="AR5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="AS5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44397</v>
+        <v>44404</v>
       </c>
       <c r="AT5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44398</v>
+        <v>44405</v>
       </c>
       <c r="AU5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44399</v>
+        <v>44406</v>
       </c>
       <c r="AV5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44400</v>
+        <v>44407</v>
       </c>
       <c r="AW5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44401</v>
+        <v>44408</v>
       </c>
       <c r="AX5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44402</v>
+        <v>44409</v>
       </c>
       <c r="AY5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="AZ5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44404</v>
+        <v>44411</v>
       </c>
       <c r="BA5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="BB5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="BC5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44407</v>
+        <v>44414</v>
       </c>
       <c r="BD5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44408</v>
+        <v>44415</v>
       </c>
       <c r="BE5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44409</v>
+        <v>44416</v>
       </c>
       <c r="BF5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="BG5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44411</v>
+        <v>44418</v>
       </c>
       <c r="BH5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="BI5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="BJ5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44414</v>
+        <v>44421</v>
       </c>
       <c r="BK5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>44415</v>
+        <v>44422</v>
       </c>
       <c r="BL5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44416</v>
+        <v>44423</v>
       </c>
     </row>
     <row r="6" spans="1:76" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,11 +1955,11 @@
       </c>
       <c r="E9" s="31">
         <f ca="1">Project_Start</f>
-        <v>44363</v>
+        <v>44372</v>
       </c>
       <c r="F9" s="31">
         <f ca="1">E9+6</f>
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="str">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="E10" s="31">
         <f t="shared" ref="E10:E11" ca="1" si="2">F9</f>
-        <v>44369</v>
+        <v>44378</v>
       </c>
       <c r="F10" s="31">
         <f ca="1">E10+2</f>
-        <v>44371</v>
+        <v>44380</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="str">
@@ -2121,11 +2121,11 @@
       </c>
       <c r="E11" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>44371</v>
+        <v>44380</v>
       </c>
       <c r="F11" s="31">
         <f ca="1">E11+12</f>
-        <v>44383</v>
+        <v>44392</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="str">
@@ -2214,11 +2214,11 @@
       </c>
       <c r="E12" s="31">
         <f ca="1">F11+2</f>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F12" s="31">
         <f ca="1">E12+2</f>
-        <v>44387</v>
+        <v>44396</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="str">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="E13" s="31">
         <f ca="1">E12</f>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F13" s="31">
         <f ca="1">E13+2</f>
-        <v>44387</v>
+        <v>44396</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="str">
@@ -2442,18 +2442,18 @@
         <v>33</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D15" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="40">
         <f ca="1">E13-6</f>
-        <v>44379</v>
+        <v>44388</v>
       </c>
       <c r="F15" s="40">
         <f ca="1">E15+3</f>
-        <v>44382</v>
+        <v>44391</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="str">
@@ -2526,15 +2526,15 @@
         <v>51</v>
       </c>
       <c r="D16" s="39">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="40">
         <f ca="1">E13</f>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F16" s="40">
         <f ca="1">E16+4</f>
-        <v>44389</v>
+        <v>44398</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="str">
@@ -2607,15 +2607,15 @@
         <v>50</v>
       </c>
       <c r="D17" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="40">
         <f ca="1">E16</f>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F17" s="40">
         <f ca="1">E17+14</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="str">
@@ -2688,15 +2688,15 @@
         <v>30</v>
       </c>
       <c r="D18" s="39">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="40">
         <f t="shared" ref="E18:E19" ca="1" si="3">E17</f>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F18" s="40">
         <f ca="1">E18+6</f>
-        <v>44391</v>
+        <v>44400</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="str">
@@ -2769,15 +2769,15 @@
         <v>52</v>
       </c>
       <c r="D19" s="39">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="40">
         <f t="shared" ca="1" si="3"/>
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="F19" s="40">
         <f ca="1">E19+8</f>
-        <v>44393</v>
+        <v>44402</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="str">
@@ -2919,15 +2919,19 @@
       <c r="B21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="47">
+        <v>1</v>
+      </c>
       <c r="E21" s="48">
         <f ca="1">E19+5</f>
-        <v>44390</v>
+        <v>44399</v>
       </c>
       <c r="F21" s="48">
         <f ca="1">E21+5</f>
-        <v>44395</v>
+        <v>44404</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="str">
@@ -2996,17 +3000,19 @@
       <c r="B22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="47">
         <v>0.8</v>
       </c>
       <c r="E22" s="48">
         <f ca="1">F15+1</f>
-        <v>44383</v>
+        <v>44392</v>
       </c>
       <c r="F22" s="48">
         <f ca="1">E22+5</f>
-        <v>44388</v>
+        <v>44397</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="str">
@@ -3080,15 +3086,19 @@
       <c r="B23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="47">
+        <v>0.2</v>
+      </c>
       <c r="E23" s="48">
         <f ca="1">E11</f>
-        <v>44371</v>
+        <v>44380</v>
       </c>
       <c r="F23" s="48">
         <f ca="1">F22+11</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="str">
@@ -3157,15 +3167,19 @@
       <c r="B24" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="47">
+        <v>1</v>
+      </c>
       <c r="E24" s="74">
         <f ca="1">F22</f>
-        <v>44388</v>
+        <v>44397</v>
       </c>
       <c r="F24" s="48">
         <f ca="1">E24+7</f>
-        <v>44395</v>
+        <v>44404</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="str">
@@ -3238,11 +3252,11 @@
       <c r="D25" s="47"/>
       <c r="E25" s="48">
         <f ca="1">E21</f>
-        <v>44390</v>
+        <v>44399</v>
       </c>
       <c r="F25" s="48">
         <f ca="1">F23</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="str">
@@ -3388,11 +3402,11 @@
       <c r="D27" s="55"/>
       <c r="E27" s="56">
         <f ca="1">F25-3</f>
-        <v>44396</v>
+        <v>44405</v>
       </c>
       <c r="F27" s="56">
         <f ca="1">E27+1</f>
-        <v>44397</v>
+        <v>44406</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27" t="str">
@@ -3465,11 +3479,11 @@
       <c r="D28" s="55"/>
       <c r="E28" s="56">
         <f ca="1">E27</f>
-        <v>44396</v>
+        <v>44405</v>
       </c>
       <c r="F28" s="56">
         <f ca="1">F30</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27" t="str">
@@ -3613,11 +3627,11 @@
       <c r="D30" s="71"/>
       <c r="E30" s="75">
         <f ca="1">F25</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="F30" s="75">
         <f ca="1">E30</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="str">
@@ -3690,11 +3704,11 @@
       <c r="D31" s="73"/>
       <c r="E31" s="76">
         <f ca="1">E30</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="F31" s="76">
         <f ca="1">F30</f>
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27" t="str">
@@ -5475,11 +5489,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
@@ -5487,6 +5496,11 @@
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:BL9 I10:S10 I11:AE11 I12:BL21 I22:AJ22 I23:BL33">
     <cfRule type="expression" dxfId="3" priority="1">
